--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/0으로시작하는숫자(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/0으로시작하는숫자(준비).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part1\Section01\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D103230E-9286-4D64-954D-668851B58F60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B33D5E1-10BD-E549-B070-8418D6FA8135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15280" windowHeight="7520" xr2:uid="{63CECBF9-6AA4-4D31-BF8C-2B51D37D5799}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{63CECBF9-6AA4-4D31-BF8C-2B51D37D5799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,12 +34,23 @@
     <t>차지비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +89,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -396,20 +413,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B636D08F-58FB-4419-A25C-03CE6F0DBC2D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
